--- a/Round_1/Dataset Round 01/BI9 _ Data Dictionary Round 01.xlsx
+++ b/Round_1/Dataset Round 01/BI9 _ Data Dictionary Round 01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITBCLUB_Business_Intelligence_Season_9\Round_1\Dataset Round 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITBCLUB_Business_Intelligence_Season_9\BI-season-9\Round_1\Dataset Round 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433260E-9091-4E19-9071-879D7D438FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CC5466-506E-41EA-82BC-5CDD1FC4744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017Segmentation3685case" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="128">
   <si>
     <t>2017Segmentation3685case</t>
   </si>
@@ -519,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -529,6 +529,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,7 +752,9 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -766,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -774,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -782,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -790,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -798,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -806,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -826,8 +831,8 @@
   </sheetPr>
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -837,7 +842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -875,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -883,7 +888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -891,7 +896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -899,7 +904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -907,7 +912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -915,7 +920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -936,7 +941,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A11:B12"/>
+      <selection activeCell="B23" sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -949,7 +954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -987,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -995,7 +1000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1003,7 +1008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1019,7 +1024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1027,7 +1032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1035,7 +1040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1043,7 +1048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1051,7 +1056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1059,7 +1064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1067,7 +1072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1075,7 +1080,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1091,7 +1096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -1099,7 +1104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1123,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -1139,7 +1144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -1159,7 +1164,9 @@
   </sheetPr>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1171,7 +1178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
@@ -1209,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1217,7 +1224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -1233,7 +1240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1253,7 +1260,9 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1262,7 +1271,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -1300,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -1308,7 +1317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1316,7 +1325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1332,7 +1341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
@@ -1352,7 +1361,9 @@
   </sheetPr>
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B95" sqref="A11:B95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1364,7 +1375,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -1402,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -1426,7 +1437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
@@ -1434,7 +1445,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1442,7 +1453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
@@ -1460,9 +1471,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B137" sqref="A1:B137"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1471,7 +1484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -1509,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1517,7 +1530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1525,7 +1538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -1533,7 +1546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
@@ -1541,12 +1554,899 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +2461,9 @@
   </sheetPr>
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="A1:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1573,7 +2475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -1611,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1619,7 +2521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1627,7 +2529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1635,7 +2537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>86</v>
       </c>
@@ -1643,7 +2545,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>88</v>
       </c>
@@ -1651,7 +2553,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>90</v>
       </c>
@@ -1672,7 +2574,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="B22" sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1685,7 +2587,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
@@ -1723,7 +2625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1744,7 +2646,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="8"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1752,7 +2654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>94</v>
       </c>
@@ -1760,7 +2662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>96</v>
       </c>
@@ -1768,7 +2670,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>98</v>
       </c>
@@ -1776,7 +2678,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
@@ -1784,7 +2686,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>102</v>
       </c>
@@ -1792,7 +2694,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>104</v>
       </c>
@@ -1800,7 +2702,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>106</v>
       </c>
@@ -1808,7 +2710,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
@@ -1816,7 +2718,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>110</v>
       </c>
@@ -1824,7 +2726,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>112</v>
       </c>
@@ -1832,7 +2734,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>114</v>
       </c>
@@ -1840,7 +2742,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>116</v>
       </c>
@@ -1848,7 +2750,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>118</v>
       </c>
@@ -1856,7 +2758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>120</v>
       </c>
@@ -1864,7 +2766,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>122</v>
       </c>
@@ -1872,7 +2774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1880,7 +2782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>124</v>
       </c>
